--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_05_09.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_05_09.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08C8C5-EBF2-435A-B30E-9665B5ACAA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC59003-D375-4637-84EF-023577B11C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
     <sheet name="Schiefeebene" sheetId="19" r:id="rId2"/>
-    <sheet name="Vektoren" sheetId="18" r:id="rId3"/>
-    <sheet name="Geburtstagsliste" sheetId="17" r:id="rId4"/>
-    <sheet name="Einheiten umrechnen" sheetId="16" r:id="rId5"/>
-    <sheet name="Flächenberechnungen" sheetId="14" r:id="rId6"/>
-    <sheet name="Kinematik_1" sheetId="4" r:id="rId7"/>
-    <sheet name="Kinematik_2" sheetId="9" r:id="rId8"/>
-    <sheet name="Kinematik_2_Berechnungen" sheetId="11" r:id="rId9"/>
-    <sheet name="Fourierreihe" sheetId="12" r:id="rId10"/>
-    <sheet name="Scheinleistung" sheetId="15" r:id="rId11"/>
+    <sheet name="Schiefe-Ebene (alt)" sheetId="20" r:id="rId3"/>
+    <sheet name="Vektoren" sheetId="18" r:id="rId4"/>
+    <sheet name="Geburtstagsliste" sheetId="17" r:id="rId5"/>
+    <sheet name="Einheiten umrechnen" sheetId="16" r:id="rId6"/>
+    <sheet name="Flächenberechnungen" sheetId="14" r:id="rId7"/>
+    <sheet name="Kinematik_1" sheetId="4" r:id="rId8"/>
+    <sheet name="Kinematik_2" sheetId="9" r:id="rId9"/>
+    <sheet name="Kinematik_2_Berechnungen" sheetId="11" r:id="rId10"/>
+    <sheet name="Fourierreihe (alt)" sheetId="12" r:id="rId11"/>
+    <sheet name="Scheinleistung" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Geburtstagsliste!$A$4:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Geburtstagsliste!$A$4:$K$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="321">
   <si>
     <t>x:</t>
   </si>
@@ -2423,6 +2424,102 @@
   </si>
   <si>
     <t xml:space="preserve">g = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m * g =</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * cos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * sin(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3334,7 +3431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3760,9 +3857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4532,7 +4626,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4594,10 +4688,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,10 +4753,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4674,10 +4768,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4724,10 +4818,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4739,10 +4833,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,10 +4883,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.4729635533386061</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4804,10 +4898,10 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6961550602441591</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7865,7 +7959,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$J$14</c:f>
+              <c:f>'Fourierreihe (alt)'!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7888,7 +7982,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8014,7 +8108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$14:$AY$14</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$14:$AY$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8150,7 +8244,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$J$15</c:f>
+              <c:f>'Fourierreihe (alt)'!$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8176,7 +8270,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8302,7 +8396,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$15:$AY$15</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$15:$AY$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8438,7 +8532,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$J$16</c:f>
+              <c:f>'Fourierreihe (alt)'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8464,7 +8558,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8590,7 +8684,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$16:$AY$16</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$16:$AY$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8726,7 +8820,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$J$17</c:f>
+              <c:f>'Fourierreihe (alt)'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8753,7 +8847,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8879,7 +8973,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$17:$AY$17</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$17:$AY$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -9015,7 +9109,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$J$20</c:f>
+              <c:f>'Fourierreihe (alt)'!$J$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9038,7 +9132,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -9164,7 +9258,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$M$20:$AY$20</c:f>
+              <c:f>'Fourierreihe (alt)'!$M$20:$AY$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
@@ -9300,7 +9394,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$S$4</c:f>
+              <c:f>'Fourierreihe (alt)'!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9328,7 +9422,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$W$5:$X$5</c:f>
+              <c:f>'Fourierreihe (alt)'!$W$5:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -9343,7 +9437,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$W$6:$X$6</c:f>
+              <c:f>'Fourierreihe (alt)'!$W$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -9750,7 +9844,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>U = 20 * sin(50*x  + 1.57) = </c:v>
+                  <c:v>U = 20 * sin(50*x  + 0.52) = </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9900,121 +9994,121 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>9.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.320508075688757</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.320508075688785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.000000000000009</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.9200413748385898E-14</c:v>
+                  <c:v>17.320508075688743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.9999999999999538</c:v>
+                  <c:v>10.000000000000025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.3205080756887</c:v>
+                  <c:v>-1.9598038469847978E-14</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>-10.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-17.320508075688831</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-20</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>-17.320508075688796</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10.000000000000247</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3521982972507516E-13</c:v>
+                  <c:v>-17.320508075688807</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9999999999998384</c:v>
+                  <c:v>-10.000000000000263</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>-2.5482220500361308E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9999999999998206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.320508075688409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.320508075689087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.000000000000501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9191740131006014E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.9999999999995843</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-17.320508075688842</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-17.320508075688938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.9999999999997531</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0163987387370526E-13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.00000000000033</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>17.320508075688707</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.320508075689077</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.9999999999999911</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0964007319853621E-13</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>17.320508075689361</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9999999999994991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.878544179216405E-14</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-9.9999999999996021</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
                   <c:v>-17.320508075688853</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="32">
                   <c:v>-20</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>-17.320508075688647</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-10.000000000000229</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-7.8406031667199727E-13</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
+                  <c:v>-17.320508075688078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.999999999999245</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5279938692678314E-13</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>9.9999999999998561</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.320508075688998</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>17.320508075689567</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.320508075689066</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.000000000000959</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.6269147487535385E-12</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-10.00000000000011</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-17.320508075688576</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-17.32050807568892</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-10.000000000000703</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.4083595081340121E-13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10.000000000000364</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.320508075688721</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17.320508075688203</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.9999999999994653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10473,118 +10567,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6602540378443766</c:v>
+                  <c:v>8.6602540378443624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6602540378443837</c:v>
+                  <c:v>17.320508075688753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.9200413748385898E-14</c:v>
+                  <c:v>17.320508075688743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.6602540378443678</c:v>
+                  <c:v>8.6602540378444299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.6602540378443784</c:v>
+                  <c:v>-9.7990192349240222E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7968508305790181E-15</c:v>
+                  <c:v>4.898425415289539E-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6602540378444424</c:v>
+                  <c:v>8.6602540378444601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6602540378445561</c:v>
+                  <c:v>17.320508075688686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3521982972507516E-13</c:v>
+                  <c:v>17.320508075688807</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.6602540378442665</c:v>
+                  <c:v>8.6602540378446342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.6602540378443749</c:v>
+                  <c:v>1.2741110250180684E-13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9593701661158036E-14</c:v>
+                  <c:v>9.7968508305788429E-15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6602540378441635</c:v>
+                  <c:v>8.6602540378438295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6602540378444086</c:v>
+                  <c:v>17.320508075688831</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0964007319853621E-13</c:v>
+                  <c:v>17.320508075689087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.6602540378441297</c:v>
+                  <c:v>8.6602540378449078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.6602540378442274</c:v>
+                  <c:v>-1.9595870065502559E-14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.5482654181230302E-13</c:v>
+                  <c:v>-1.2741327090614621E-13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.6602540378445951</c:v>
+                  <c:v>8.6602540378446928</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6602540378445454</c:v>
+                  <c:v>17.320508075688693</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.8406031667199727E-13</c:v>
+                  <c:v>17.320508075688938</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.6602540378442772</c:v>
+                  <c:v>8.6602540378441883</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.66025403784408</c:v>
+                  <c:v>-4.5081993693683082E-13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9187403322316072E-14</c:v>
+                  <c:v>1.9593701661158683E-14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6602540378441724</c:v>
+                  <c:v>8.6602540378439929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.6602540378449664</c:v>
+                  <c:v>17.320508075688274</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6269147487535385E-12</c:v>
+                  <c:v>17.320508075689361</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.6602540378444228</c:v>
+                  <c:v>8.6602540378438935</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.660254037844501</c:v>
+                  <c:v>-2.9392720896082751E-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-8.0366702875922513E-13</c:v>
+                  <c:v>-4.0183351437959656E-13</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.6602540378443216</c:v>
+                  <c:v>8.6602540378442878</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.660254037844819</c:v>
+                  <c:v>17.320508075688423</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9.4083595081340121E-13</c:v>
+                  <c:v>17.320508075688078</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-8.6602540378445685</c:v>
+                  <c:v>8.6602540378436004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.6602540378443535</c:v>
+                  <c:v>-1.7639969346339142E-13</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-5.0965308362460604E-13</c:v>
+                  <c:v>-2.5482654181229933E-13</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.6602540378450339</c:v>
+                  <c:v>8.660254037845716</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.6602540378441049</c:v>
+                  <c:v>17.320508075689137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10652,7 +10746,7 @@
                   <c:v>0.86602540378444159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999911</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16521,6 +16615,165 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019C7CDC-79FA-429A-985A-B51FE475AB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18059400" y="6286500"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>721001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>183792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B33054-7231-4A97-A9F8-31B56B694AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>777875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Pfeil: nach rechts 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F0F8-E53B-58D8-0CBE-DC173F63560B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="619125" y="650875"/>
+          <a:ext cx="1682750" cy="1063625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
@@ -16676,6 +16929,848 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerader Verbinder 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4C6D80-4715-3C2D-AE72-DA0A1FC35414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3035300" y="1282700"/>
+          <a:ext cx="4603750" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567531</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rechteck 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C857341-5DA2-2A83-AF5E-C31B9C7C4515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21146159">
+          <a:off x="5127625" y="642937"/>
+          <a:ext cx="773906" cy="273844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>758031</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerader Verbinder 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA9A06E-94C4-49D2-4ECA-65694E6B89A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3044031" y="604838"/>
+          <a:ext cx="4607719" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198438</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966C877C-336F-B0D4-6274-14558E383C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532438" y="777875"/>
+          <a:ext cx="7937" cy="900906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196273</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363CB9E1-CACA-E947-507F-38E8B44F4D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5530273" y="764886"/>
+          <a:ext cx="200602" cy="909564"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558992</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3BC4D0-8EAB-E39D-EBF4-4663C84E5E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5130992" y="767773"/>
+          <a:ext cx="410826" cy="71681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277092</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Textfeld 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49871A34-AF74-83AF-8960-6390ECED1D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5611092" y="565727"/>
+          <a:ext cx="297325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>738910</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="308802" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Textfeld 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CF922A-D5CD-2F4A-9CFD-F6DB1438CACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5310910" y="1535546"/>
+          <a:ext cx="308802" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="-25000"/>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502228</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="308098" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Textfeld 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF053B8-9A75-D11E-EA6F-B069E3B15B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074228" y="583046"/>
+          <a:ext cx="308098" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="-25000"/>
+            <a:t>H</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369455</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80819</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="310213" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Textfeld 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A444783-B347-1179-31C5-8FFE47884D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703455" y="1373910"/>
+          <a:ext cx="310213" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="-25000"/>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>750455</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>181841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Bogen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F41540-71BB-A8D8-63F9-107DE7AD76E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="1093932"/>
+          <a:ext cx="83705" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4041</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341412</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Bogen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F56D97C-224B-E45D-F589-1F9AC4818A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4991535">
+          <a:off x="5461139" y="1270486"/>
+          <a:ext cx="91176" cy="337371"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16051881"/>
+            <a:gd name="adj2" fmla="val 20412555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447387</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135659</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264688" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Textfeld 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246DCF9F-0578-A8A2-788C-4BE15888B1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257387" y="1059295"/>
+          <a:ext cx="264688" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>124115</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109681</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264688" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Textfeld 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E951EA93-D8B1-9A82-2628-1CF76B3BDC1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5458115" y="1218045"/>
+          <a:ext cx="264688" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>293007</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -16774,7 +17869,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16840,7 +17935,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16906,7 +18001,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16972,7 +18067,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17112,7 +18207,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17250,7 +18345,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17281,165 +18376,6 @@
         <a:xfrm rot="10800000">
           <a:off x="196273" y="484909"/>
           <a:ext cx="1062182" cy="796636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019C7CDC-79FA-429A-985A-B51FE475AB30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18059400" y="6286500"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>721001</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>183792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>412749</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B33054-7231-4A97-A9F8-31B56B694AD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Pfeil: nach rechts 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F0F8-E53B-58D8-0CBE-DC173F63560B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="619125" y="650875"/>
-          <a:ext cx="1682750" cy="1063625"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -17743,7 +18679,7 @@
   </sheetPr>
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -17859,13 +18795,697 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:S19"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" customWidth="1"/>
+    <col min="15" max="15" width="35.1796875" customWidth="1"/>
+    <col min="18" max="18" width="5.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="159" t="str">
+        <f>$O$8</f>
+        <v>Anfangs-Geschwindigkeit</v>
+      </c>
+      <c r="D6" s="160"/>
+      <c r="E6" s="163" t="str">
+        <f>$O$9</f>
+        <v>Geschwindigkeit</v>
+      </c>
+      <c r="F6" s="160"/>
+      <c r="G6" s="163" t="str">
+        <f>$O$10</f>
+        <v>Strecke</v>
+      </c>
+      <c r="H6" s="160"/>
+      <c r="I6" s="163" t="str">
+        <f>$O$11</f>
+        <v>Zeit</v>
+      </c>
+      <c r="J6" s="160"/>
+      <c r="K6" s="163" t="str">
+        <f>$O$12</f>
+        <v>Beschleunigung</v>
+      </c>
+      <c r="L6" s="164"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="161" t="str">
+        <f>$P$8</f>
+        <v>v0 [m/s]</v>
+      </c>
+      <c r="D7" s="162"/>
+      <c r="E7" s="165" t="str">
+        <f>$P$9</f>
+        <v>v [m/s]</v>
+      </c>
+      <c r="F7" s="162"/>
+      <c r="G7" s="165" t="str">
+        <f>$P$10</f>
+        <v>s [m]</v>
+      </c>
+      <c r="H7" s="162"/>
+      <c r="I7" s="165" t="str">
+        <f>$P$11</f>
+        <v>t [s]</v>
+      </c>
+      <c r="J7" s="162"/>
+      <c r="K7" s="165" t="str">
+        <f>$P$12</f>
+        <v>a [m/s2]</v>
+      </c>
+      <c r="L7" s="166"/>
+      <c r="O7" s="80"/>
+      <c r="S7" s="63"/>
+    </row>
+    <row r="8" spans="1:19" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34">
+        <v>28</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="29">
+        <f>(G8-(K8/2)*I8^2)/I8</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="29">
+        <f xml:space="preserve"> G8/I8 + K8*I8/2</f>
+        <v>24</v>
+      </c>
+      <c r="G8" s="153">
+        <v>119</v>
+      </c>
+      <c r="H8" s="154"/>
+      <c r="I8" s="153">
+        <v>7</v>
+      </c>
+      <c r="J8" s="154"/>
+      <c r="K8" s="153">
+        <v>2</v>
+      </c>
+      <c r="L8" s="158"/>
+      <c r="N8" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="52">
+        <f>IF(N8=$Q$3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="31">
+        <f>E9-K9*I9</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="150">
+        <v>24</v>
+      </c>
+      <c r="F9" s="151"/>
+      <c r="G9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="31">
+        <f>E9*I9 - K9*I9^2/2</f>
+        <v>119</v>
+      </c>
+      <c r="I9" s="150">
+        <v>7</v>
+      </c>
+      <c r="J9" s="151"/>
+      <c r="K9" s="150">
+        <v>2</v>
+      </c>
+      <c r="L9" s="156"/>
+      <c r="N9" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="52">
+        <f>IF(N9=$Q$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R9" s="52"/>
+      <c r="S9" s="74"/>
+    </row>
+    <row r="10" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="31">
+        <f>SQRT(E10^2 - 2*K10*G10)</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="150">
+        <v>24</v>
+      </c>
+      <c r="F10" s="151"/>
+      <c r="G10" s="150">
+        <v>119</v>
+      </c>
+      <c r="H10" s="151"/>
+      <c r="I10" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="31">
+        <f>(E10 - SQRT(E10^2 - 2*K10*G10))/K10</f>
+        <v>7</v>
+      </c>
+      <c r="K10" s="150">
+        <v>2</v>
+      </c>
+      <c r="L10" s="156"/>
+      <c r="N10" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="52">
+        <f>IF(N10=$Q$3,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+    </row>
+    <row r="11" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="31">
+        <f>2*G11/I11 - E11</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="150">
+        <v>24</v>
+      </c>
+      <c r="F11" s="151"/>
+      <c r="G11" s="150">
+        <v>119</v>
+      </c>
+      <c r="H11" s="151"/>
+      <c r="I11" s="150">
+        <v>7</v>
+      </c>
+      <c r="J11" s="151"/>
+      <c r="K11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="45">
+        <f xml:space="preserve"> 2/I11 * (E11 - G11/I11)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="52">
+        <f>IF(N11=$Q$3,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+    </row>
+    <row r="12" spans="1:19" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34">
+        <v>25</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="155">
+        <v>10</v>
+      </c>
+      <c r="D12" s="151"/>
+      <c r="E12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="31">
+        <f>K12*I12+C12</f>
+        <v>24</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="31">
+        <f>K12/2 * I12^2 + C12*I12</f>
+        <v>119</v>
+      </c>
+      <c r="I12" s="150">
+        <v>7</v>
+      </c>
+      <c r="J12" s="151"/>
+      <c r="K12" s="150">
+        <v>2</v>
+      </c>
+      <c r="L12" s="156"/>
+      <c r="N12" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="52">
+        <f>IF(N12=$Q$3,16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="74"/>
+      <c r="S12" s="52">
+        <f>SUM(Q8:Q12)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="155">
+        <v>10</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="31">
+        <f>SQRT(C13^2 + 2*K13*G13)</f>
+        <v>24</v>
+      </c>
+      <c r="G13" s="150">
+        <v>119</v>
+      </c>
+      <c r="H13" s="151"/>
+      <c r="I13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="31">
+        <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="148">
+        <v>2</v>
+      </c>
+      <c r="L13" s="156"/>
+      <c r="O13" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="155">
+        <v>10</v>
+      </c>
+      <c r="D14" s="151"/>
+      <c r="E14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="31">
+        <f>2*G14/I14 - C14</f>
+        <v>24</v>
+      </c>
+      <c r="G14" s="150">
+        <v>119</v>
+      </c>
+      <c r="H14" s="151"/>
+      <c r="I14" s="150">
+        <v>7</v>
+      </c>
+      <c r="J14" s="157"/>
+      <c r="K14" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="45">
+        <f>2*((G14-C14*I14)/I14^2)</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="155">
+        <v>10</v>
+      </c>
+      <c r="D15" s="151"/>
+      <c r="E15" s="150">
+        <v>24</v>
+      </c>
+      <c r="F15" s="151"/>
+      <c r="G15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="31">
+        <f>(E15^2 - C15^2)/(2*K15)</f>
+        <v>119</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="31">
+        <f>(E15-C15)/K15</f>
+        <v>7</v>
+      </c>
+      <c r="K15" s="150">
+        <v>2</v>
+      </c>
+      <c r="L15" s="156"/>
+      <c r="O15" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="155">
+        <v>10</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="150">
+        <v>24</v>
+      </c>
+      <c r="F16" s="151"/>
+      <c r="G16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="31">
+        <f>(C16+E16)*I16/2</f>
+        <v>119</v>
+      </c>
+      <c r="I16" s="150">
+        <v>7</v>
+      </c>
+      <c r="J16" s="151"/>
+      <c r="K16" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="45">
+        <f>(E16-C16)/I16</f>
+        <v>2</v>
+      </c>
+      <c r="O16" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="152">
+        <v>10</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="148">
+        <v>24</v>
+      </c>
+      <c r="F17" s="149"/>
+      <c r="G17" s="148">
+        <v>119</v>
+      </c>
+      <c r="H17" s="149"/>
+      <c r="I17" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="83">
+        <f>2*G17/(C17+E17)</f>
+        <v>7</v>
+      </c>
+      <c r="K17" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="84">
+        <f>(E17^2 - C17^2)/(2*G17)</f>
+        <v>2</v>
+      </c>
+      <c r="O17" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="167" t="str">
+        <f>P13</f>
+        <v>ω0 [rad/s]</v>
+      </c>
+      <c r="D18" s="168"/>
+      <c r="E18" s="169" t="str">
+        <f>P14</f>
+        <v>ω [rad/s]</v>
+      </c>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169" t="str">
+        <f>P15</f>
+        <v>φ [rad]</v>
+      </c>
+      <c r="H18" s="168"/>
+      <c r="I18" s="169" t="str">
+        <f>P16</f>
+        <v>t [s]</v>
+      </c>
+      <c r="J18" s="168"/>
+      <c r="K18" s="169" t="str">
+        <f>P17</f>
+        <v>α [rad/s2]</v>
+      </c>
+      <c r="L18" s="170"/>
+    </row>
+    <row r="19" spans="1:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="171" t="str">
+        <f>O13</f>
+        <v>Anfangs-Winkelgeschwindigkeit</v>
+      </c>
+      <c r="D19" s="172"/>
+      <c r="E19" s="173" t="str">
+        <f>O14</f>
+        <v>Winkelgeschwindigkeit</v>
+      </c>
+      <c r="F19" s="172"/>
+      <c r="G19" s="173" t="str">
+        <f>O15</f>
+        <v>Winkel</v>
+      </c>
+      <c r="H19" s="172"/>
+      <c r="I19" s="173" t="str">
+        <f>O16</f>
+        <v>Zeit</v>
+      </c>
+      <c r="J19" s="172"/>
+      <c r="K19" s="173" t="str">
+        <f>O17</f>
+        <v>Winkelbeschleunigung</v>
+      </c>
+      <c r="L19" s="174"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I16:J16"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">
+      <formula1>$C$7:$L$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N12" xr:uid="{DCF60D17-7633-456A-A407-CB000447DE9C}">
+      <formula1>$Q$3:$Q$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156B38E5-43C1-41D2-ADA5-A29109FD68B0}">
   <sheetPr codeName="Tabelle15">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:AY21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AP96" sqref="AP96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19381,7 +21001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF7D5C-D0F8-40D0-BDC5-363CB671BB60}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -19426,7 +21046,7 @@
       </c>
       <c r="T5" s="55">
         <f>MAX(K14:K18)</f>
-        <v>9.9999999999999911</v>
+        <v>20</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -19456,7 +21076,7 @@
       </c>
       <c r="X6" s="55">
         <f>T5</f>
-        <v>9.9999999999999911</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.35">
@@ -19466,7 +21086,7 @@
       <c r="S7" s="141"/>
       <c r="T7" s="5">
         <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
-        <v>9.9999999999999911</v>
+        <v>20</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -19898,180 +21518,180 @@
         <v>50</v>
       </c>
       <c r="E14" s="42">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F14" s="73">
         <f>PI()*E14/180</f>
-        <v>1.5707963267948966</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="J14" s="58" t="str">
         <f>_xlfn.CONCAT("U = ",IF(C14&lt;&gt;1,_xlfn.CONCAT(ROUND(C14,2)," *"),"")," sin(",IF(D14&lt;&gt;1,_xlfn.CONCAT(ROUND(D14,2),"*"),""),"x ",IF(F14&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F14,2),""),""),") = ")</f>
-        <v xml:space="preserve">U = 20 * sin(50*x  + 1.57) = </v>
+        <v xml:space="preserve">U = 20 * sin(50*x  + 0.52) = </v>
       </c>
       <c r="K14" s="66">
         <f>IF($L$14=$AI$7,$C$14*SIN($D$14*K13 + $F$14),0)</f>
-        <v>9.9999999999999911</v>
+        <v>20</v>
       </c>
       <c r="L14" s="48" t="s">
         <v>72</v>
       </c>
       <c r="M14" s="54">
         <f>IF($L$14=$AI$7,$C$14*SIN($D$14*M13 + $F$14),0)</f>
-        <v>20</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="N14" s="54">
         <f t="shared" ref="N14:AY14" si="3">IF($L$14=$AI$7,$C$14*SIN($D$14*N13 + $F$14),0)</f>
-        <v>17.320508075688785</v>
+        <v>17.320508075688757</v>
       </c>
       <c r="O14" s="54">
         <f t="shared" si="3"/>
-        <v>10.000000000000009</v>
+        <v>20</v>
       </c>
       <c r="P14" s="54">
         <f t="shared" si="3"/>
-        <v>-3.9200413748385898E-14</v>
+        <v>17.320508075688743</v>
       </c>
       <c r="Q14" s="54">
         <f t="shared" si="3"/>
-        <v>-9.9999999999999538</v>
+        <v>10.000000000000025</v>
       </c>
       <c r="R14" s="54">
         <f t="shared" si="3"/>
-        <v>-17.3205080756887</v>
+        <v>-1.9598038469847978E-14</v>
       </c>
       <c r="S14" s="54">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>-10.00000000000006</v>
       </c>
       <c r="T14" s="54">
         <f t="shared" si="3"/>
-        <v>-17.320508075688796</v>
+        <v>-17.320508075688831</v>
       </c>
       <c r="U14" s="54">
         <f t="shared" si="3"/>
-        <v>-10.000000000000247</v>
+        <v>-20</v>
       </c>
       <c r="V14" s="54">
         <f t="shared" si="3"/>
-        <v>-2.3521982972507516E-13</v>
+        <v>-17.320508075688807</v>
       </c>
       <c r="W14" s="54">
         <f t="shared" si="3"/>
-        <v>9.9999999999998384</v>
+        <v>-10.000000000000263</v>
       </c>
       <c r="X14" s="54">
         <f t="shared" si="3"/>
-        <v>17.320508075688707</v>
+        <v>-2.5482220500361308E-13</v>
       </c>
       <c r="Y14" s="54">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>9.9999999999998206</v>
       </c>
       <c r="Z14" s="54">
         <f t="shared" si="3"/>
-        <v>17.320508075689077</v>
+        <v>17.320508075688409</v>
       </c>
       <c r="AA14" s="54">
         <f t="shared" si="3"/>
-        <v>9.9999999999999911</v>
+        <v>20</v>
       </c>
       <c r="AB14" s="54">
         <f t="shared" si="3"/>
-        <v>5.0964007319853621E-13</v>
+        <v>17.320508075689087</v>
       </c>
       <c r="AC14" s="54">
         <f t="shared" si="3"/>
-        <v>-9.9999999999996021</v>
+        <v>10.000000000000501</v>
       </c>
       <c r="AD14" s="54">
         <f t="shared" si="3"/>
-        <v>-17.320508075688853</v>
+        <v>-3.9191740131006014E-14</v>
       </c>
       <c r="AE14" s="54">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>-9.9999999999995843</v>
       </c>
       <c r="AF14" s="54">
         <f t="shared" si="3"/>
-        <v>-17.320508075688647</v>
+        <v>-17.320508075688842</v>
       </c>
       <c r="AG14" s="54">
         <f t="shared" si="3"/>
-        <v>-10.000000000000229</v>
+        <v>-20</v>
       </c>
       <c r="AH14" s="54">
         <f t="shared" si="3"/>
-        <v>-7.8406031667199727E-13</v>
+        <v>-17.320508075688938</v>
       </c>
       <c r="AI14" s="54">
         <f t="shared" si="3"/>
-        <v>9.9999999999998561</v>
+        <v>-9.9999999999997531</v>
       </c>
       <c r="AJ14" s="54">
         <f t="shared" si="3"/>
-        <v>17.320508075688998</v>
+        <v>9.0163987387370526E-13</v>
       </c>
       <c r="AK14" s="54">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>10.00000000000033</v>
       </c>
       <c r="AL14" s="54">
         <f t="shared" si="3"/>
-        <v>17.320508075689066</v>
+        <v>17.320508075688707</v>
       </c>
       <c r="AM14" s="54">
         <f t="shared" si="3"/>
-        <v>10.000000000000959</v>
+        <v>20</v>
       </c>
       <c r="AN14" s="54">
         <f t="shared" si="3"/>
-        <v>1.6269147487535385E-12</v>
+        <v>17.320508075689361</v>
       </c>
       <c r="AO14" s="54">
         <f t="shared" si="3"/>
-        <v>-10.00000000000011</v>
+        <v>9.9999999999994991</v>
       </c>
       <c r="AP14" s="54">
         <f t="shared" si="3"/>
-        <v>-17.320508075688576</v>
+        <v>-5.878544179216405E-14</v>
       </c>
       <c r="AQ14" s="54">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>-9.9999999999996021</v>
       </c>
       <c r="AR14" s="54">
         <f t="shared" si="3"/>
-        <v>-17.32050807568892</v>
+        <v>-17.320508075688853</v>
       </c>
       <c r="AS14" s="54">
         <f t="shared" si="3"/>
-        <v>-10.000000000000703</v>
+        <v>-20</v>
       </c>
       <c r="AT14" s="54">
         <f t="shared" si="3"/>
-        <v>9.4083595081340121E-13</v>
+        <v>-17.320508075688078</v>
       </c>
       <c r="AU14" s="54">
         <f t="shared" si="3"/>
-        <v>10.000000000000364</v>
+        <v>-9.999999999999245</v>
       </c>
       <c r="AV14" s="54">
         <f t="shared" si="3"/>
-        <v>17.320508075688721</v>
+        <v>3.5279938692678314E-13</v>
       </c>
       <c r="AW14" s="54">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>9.9999999999998561</v>
       </c>
       <c r="AX14" s="54">
         <f t="shared" si="3"/>
-        <v>17.320508075688203</v>
+        <v>17.320508075689567</v>
       </c>
       <c r="AY14" s="54">
         <f t="shared" si="3"/>
-        <v>9.9999999999994653</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:51" x14ac:dyDescent="0.35">
@@ -20352,7 +21972,7 @@
       </c>
       <c r="K18" s="101">
         <f>IF($L$18=$AI$7,K14*K15,"")</f>
-        <v>8.6602540378444086</v>
+        <v>17.320508075688831</v>
       </c>
       <c r="L18" s="102" t="s">
         <v>72</v>
@@ -20363,155 +21983,155 @@
       </c>
       <c r="N18" s="55">
         <f t="shared" ref="N18:AY18" si="6">IF($L$18=$AI$7,N14*N15,0)</f>
-        <v>8.6602540378443766</v>
+        <v>8.6602540378443624</v>
       </c>
       <c r="O18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378443837</v>
+        <v>17.320508075688753</v>
       </c>
       <c r="P18" s="55">
         <f t="shared" si="6"/>
-        <v>-3.9200413748385898E-14</v>
+        <v>17.320508075688743</v>
       </c>
       <c r="Q18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378443678</v>
+        <v>8.6602540378444299</v>
       </c>
       <c r="R18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378443784</v>
+        <v>-9.7990192349240222E-15</v>
       </c>
       <c r="S18" s="55">
         <f t="shared" si="6"/>
-        <v>9.7968508305790181E-15</v>
+        <v>4.898425415289539E-15</v>
       </c>
       <c r="T18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378444424</v>
+        <v>8.6602540378444601</v>
       </c>
       <c r="U18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378445561</v>
+        <v>17.320508075688686</v>
       </c>
       <c r="V18" s="55">
         <f t="shared" si="6"/>
-        <v>2.3521982972507516E-13</v>
+        <v>17.320508075688807</v>
       </c>
       <c r="W18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378442665</v>
+        <v>8.6602540378446342</v>
       </c>
       <c r="X18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378443749</v>
+        <v>1.2741110250180684E-13</v>
       </c>
       <c r="Y18" s="55">
         <f t="shared" si="6"/>
-        <v>1.9593701661158036E-14</v>
+        <v>9.7968508305788429E-15</v>
       </c>
       <c r="Z18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378441635</v>
+        <v>8.6602540378438295</v>
       </c>
       <c r="AA18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378444086</v>
+        <v>17.320508075688831</v>
       </c>
       <c r="AB18" s="55">
         <f t="shared" si="6"/>
-        <v>5.0964007319853621E-13</v>
+        <v>17.320508075689087</v>
       </c>
       <c r="AC18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378441297</v>
+        <v>8.6602540378449078</v>
       </c>
       <c r="AD18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378442274</v>
+        <v>-1.9595870065502559E-14</v>
       </c>
       <c r="AE18" s="55">
         <f t="shared" si="6"/>
-        <v>-2.5482654181230302E-13</v>
+        <v>-1.2741327090614621E-13</v>
       </c>
       <c r="AF18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378445951</v>
+        <v>8.6602540378446928</v>
       </c>
       <c r="AG18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378445454</v>
+        <v>17.320508075688693</v>
       </c>
       <c r="AH18" s="55">
         <f t="shared" si="6"/>
-        <v>7.8406031667199727E-13</v>
+        <v>17.320508075688938</v>
       </c>
       <c r="AI18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378442772</v>
+        <v>8.6602540378441883</v>
       </c>
       <c r="AJ18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.66025403784408</v>
+        <v>-4.5081993693683082E-13</v>
       </c>
       <c r="AK18" s="55">
         <f t="shared" si="6"/>
-        <v>3.9187403322316072E-14</v>
+        <v>1.9593701661158683E-14</v>
       </c>
       <c r="AL18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378441724</v>
+        <v>8.6602540378439929</v>
       </c>
       <c r="AM18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378449664</v>
+        <v>17.320508075688274</v>
       </c>
       <c r="AN18" s="55">
         <f t="shared" si="6"/>
-        <v>1.6269147487535385E-12</v>
+        <v>17.320508075689361</v>
       </c>
       <c r="AO18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378444228</v>
+        <v>8.6602540378438935</v>
       </c>
       <c r="AP18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.660254037844501</v>
+        <v>-2.9392720896082751E-14</v>
       </c>
       <c r="AQ18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.0366702875922513E-13</v>
+        <v>-4.0183351437959656E-13</v>
       </c>
       <c r="AR18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378443216</v>
+        <v>8.6602540378442878</v>
       </c>
       <c r="AS18" s="55">
         <f t="shared" si="6"/>
-        <v>8.660254037844819</v>
+        <v>17.320508075688423</v>
       </c>
       <c r="AT18" s="55">
         <f t="shared" si="6"/>
-        <v>-9.4083595081340121E-13</v>
+        <v>17.320508075688078</v>
       </c>
       <c r="AU18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378445685</v>
+        <v>8.6602540378436004</v>
       </c>
       <c r="AV18" s="55">
         <f t="shared" si="6"/>
-        <v>-8.6602540378443535</v>
+        <v>-1.7639969346339142E-13</v>
       </c>
       <c r="AW18" s="55">
         <f t="shared" si="6"/>
-        <v>-5.0965308362460604E-13</v>
+        <v>-2.5482654181229933E-13</v>
       </c>
       <c r="AX18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378450339</v>
+        <v>8.660254037845716</v>
       </c>
       <c r="AY18" s="55">
         <f t="shared" si="6"/>
-        <v>8.6602540378441049</v>
+        <v>17.320508075689137</v>
       </c>
     </row>
     <row r="19" spans="10:51" x14ac:dyDescent="0.35">
@@ -20541,8 +22161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7909C101-0721-4B41-AB3B-88F5CF5B361C}">
   <dimension ref="C1:AK42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20623,8 +22243,9 @@
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>270</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="I20" s="119"/>
       <c r="K20" s="5" t="s">
         <v>276</v>
       </c>
@@ -20643,6 +22264,7 @@
       <c r="G21" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="I21" s="119"/>
       <c r="K21" s="19" t="s">
         <v>279</v>
       </c>
@@ -20652,7 +22274,7 @@
     </row>
     <row r="22" spans="4:35" x14ac:dyDescent="0.35">
       <c r="D22" s="127"/>
-      <c r="E22" s="179" t="str">
+      <c r="E22" s="19" t="str">
         <f>E21</f>
         <v xml:space="preserve">α = </v>
       </c>
@@ -20664,6 +22286,7 @@
         <f>L3</f>
         <v>°</v>
       </c>
+      <c r="I22" s="119"/>
       <c r="K22" s="19" t="s">
         <v>280</v>
       </c>
@@ -20673,7 +22296,7 @@
     </row>
     <row r="23" spans="4:35" x14ac:dyDescent="0.35">
       <c r="D23" s="127"/>
-      <c r="E23" s="179" t="str">
+      <c r="E23" s="19" t="str">
         <f>E21</f>
         <v xml:space="preserve">α = </v>
       </c>
@@ -20685,6 +22308,7 @@
         <f>L4</f>
         <v>rad</v>
       </c>
+      <c r="I23" s="119"/>
       <c r="K23" s="5" t="s">
         <v>311</v>
       </c>
@@ -20750,7 +22374,7 @@
       </c>
       <c r="H26" s="5" t="str">
         <f>IF($G$20=$M$5,"N",IF($G$20=$M$6,"kN",IF($G$20=$M$4,"mN",IF($G$20=$M$3,"Mikro N",""))))</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
     </row>
     <row r="27" spans="4:35" ht="16.5" x14ac:dyDescent="0.45">
@@ -20769,7 +22393,7 @@
       </c>
       <c r="H27" s="5" t="str">
         <f>H26</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
     </row>
     <row r="28" spans="4:35" ht="16.5" x14ac:dyDescent="0.45">
@@ -20788,7 +22412,7 @@
       </c>
       <c r="H28" s="5" t="str">
         <f>H27</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
     </row>
     <row r="29" spans="4:35" x14ac:dyDescent="0.35">
@@ -20814,7 +22438,7 @@
       </c>
       <c r="H30" s="5" t="str">
         <f>H28</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
     </row>
     <row r="31" spans="4:35" ht="16" customHeight="1" x14ac:dyDescent="0.45">
@@ -20833,7 +22457,7 @@
       </c>
       <c r="H31" s="5" t="str">
         <f>H30</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="I31" t="str">
         <f>IF(G31&gt;0,"Gleiten","Haftet")</f>
@@ -20875,7 +22499,7 @@
       </c>
       <c r="H32" s="5" t="str">
         <f>H31</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="K32" s="131" t="s">
         <v>282</v>
@@ -20984,7 +22608,7 @@
       </c>
       <c r="H33" s="5" t="str">
         <f>H32</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="K33" s="131" t="s">
         <v>285</v>
@@ -21093,7 +22717,7 @@
       </c>
       <c r="P34" s="19" t="str">
         <f>H26</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="Q34" s="5">
         <f>$F$20*SIN(Q33)*$F$24</f>
@@ -21187,7 +22811,7 @@
       </c>
       <c r="P35" s="19" t="str">
         <f>P34</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="Q35" s="5">
         <f>$F$20*$F$24*COS(Q33)*$L$21</f>
@@ -21281,7 +22905,7 @@
       </c>
       <c r="P36" s="19" t="str">
         <f t="shared" ref="P36:P38" si="14">P35</f>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="Q36" s="5">
         <f>$F$20*$F$24*COS(Q33)*$L$22</f>
@@ -21366,7 +22990,7 @@
       </c>
       <c r="P37" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="Q37" s="5">
         <f>Q34-Q35</f>
@@ -21451,7 +23075,7 @@
       </c>
       <c r="P38" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>kN</v>
+        <v>N</v>
       </c>
       <c r="Q38" s="5">
         <f>Q34-Q36</f>
@@ -21749,11 +23373,124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E690B10-2D6E-4B4D-AE6E-D70E7F961A46}">
+  <dimension ref="E12:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="5:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15">
+        <f>F13*F12</f>
+        <v>49.050000000000004</v>
+      </c>
+      <c r="H15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18">
+        <f>F17*PI()/180</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="G18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="119">
+        <f>$G$15*COS($F$18)</f>
+        <v>42.478546055626722</v>
+      </c>
+      <c r="H20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="119">
+        <f>$G$15*SIN($F$18)</f>
+        <v>24.524999999999999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5983CD-95BD-4046-A0B0-33D8FE19B550}">
   <dimension ref="C1:AC20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22019,7 +23756,7 @@
         <v>218</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="112" t="s">
         <v>219</v>
@@ -22041,7 +23778,7 @@
       </c>
       <c r="K14" s="121">
         <f>IF(I14=$T$3,D14,D14*COS(J14))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="121">
         <f>IF(I14=$T$3,F14,D14*SIN(J14))</f>
@@ -22049,22 +23786,22 @@
       </c>
       <c r="M14" s="122">
         <f>SQRT(K14^2 + L14^2)</f>
-        <v>7.0710678118654755</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="N14" s="122">
         <f>DEGREES(ATAN2(K14,L14))</f>
-        <v>45</v>
+        <v>26.56505117707799</v>
       </c>
       <c r="O14" s="122">
         <f>ATAN2(K14,L14)</f>
-        <v>0.78539816339744828</v>
+        <v>0.46364760900080609</v>
       </c>
       <c r="P14" s="93">
         <v>0</v>
       </c>
       <c r="Q14" s="93">
         <f>K14</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R14" s="93">
         <v>0</v>
@@ -22127,11 +23864,11 @@
       </c>
       <c r="P15" s="93">
         <f t="shared" ref="P15:P20" si="7">IF(H15=$R$6,0,IF(H15=$R$3,Q14,0))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="93">
         <f t="shared" ref="Q15:Q20" si="8">IF(H15=$R$6,0,IF(H15=$R$3,K15+Q14,K15))</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R15" s="93">
         <f t="shared" ref="R15:R20" si="9">IF(H15=$R$6,0,IF(H15=$R$3,S14,0))</f>
@@ -22149,7 +23886,7 @@
       </c>
       <c r="V15" s="93">
         <f>IF(P15&lt;&gt;0,Q15,0)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W15" s="93">
         <f>IF(R15&lt;&gt;0,S15,0)</f>
@@ -22173,7 +23910,7 @@
         <v>219</v>
       </c>
       <c r="H16" s="124" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -22205,19 +23942,19 @@
       </c>
       <c r="P16" s="93">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="93">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R16" s="93">
         <f t="shared" si="9"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="S16" s="93">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T16" s="93">
         <v>0</v>
@@ -22227,11 +23964,11 @@
       </c>
       <c r="V16" s="93">
         <f t="shared" ref="V16:V20" si="11">IF(P16&lt;&gt;0,Q16,0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W16" s="93">
         <f t="shared" ref="W16:W20" si="12">IF(R16&lt;&gt;0,S16,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.35">
@@ -22251,7 +23988,7 @@
         <v>219</v>
       </c>
       <c r="H17" s="124" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -22283,19 +24020,19 @@
       </c>
       <c r="P17" s="93">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="93">
         <f t="shared" si="8"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="93">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S17" s="93">
         <f t="shared" si="10"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="T17" s="93">
         <v>0</v>
@@ -22305,11 +24042,11 @@
       </c>
       <c r="V17" s="93">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="W17" s="93">
         <f t="shared" si="12"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.35">
@@ -22329,7 +24066,7 @@
         <v>215</v>
       </c>
       <c r="H18" s="124" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -22361,19 +24098,19 @@
       </c>
       <c r="P18" s="93">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="93">
         <f t="shared" si="8"/>
-        <v>-6.4729635533386061</v>
+        <v>0</v>
       </c>
       <c r="R18" s="93">
         <f t="shared" si="9"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="S18" s="93">
         <f t="shared" si="10"/>
-        <v>7.6961550602441591</v>
+        <v>0</v>
       </c>
       <c r="T18" s="93">
         <v>0</v>
@@ -22383,11 +24120,11 @@
       </c>
       <c r="V18" s="93">
         <f t="shared" si="11"/>
-        <v>-6.4729635533386061</v>
+        <v>0</v>
       </c>
       <c r="W18" s="93">
         <f t="shared" si="12"/>
-        <v>7.6961550602441591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.35">
@@ -22570,7 +24307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1841BF1A-9A03-4CA3-9AB4-14BC2465827D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
@@ -22602,7 +24339,7 @@
       </c>
       <c r="J2" s="111">
         <f ca="1">NOW()</f>
-        <v>45786.487370717594</v>
+        <v>45788.326931365744</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.6">
@@ -23927,7 +25664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB22FC2-F1DD-4976-B11D-F41AF79BE2D1}">
   <dimension ref="B1:C5"/>
   <sheetViews>
@@ -23963,7 +25700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C57830-AC00-4F43-A73A-16FD420D323A}">
   <dimension ref="B1:K45"/>
   <sheetViews>
@@ -24611,7 +26348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96115A17-1A1D-465A-AB11-E83075F9A2A8}">
   <dimension ref="B2:AO45"/>
   <sheetViews>
@@ -25329,7 +27066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6644B65-9415-4C8E-AE7F-C0B8FA4247A3}">
   <dimension ref="B2:AA11"/>
   <sheetViews>
@@ -25817,686 +27554,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:S19"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" customWidth="1"/>
-    <col min="15" max="15" width="35.1796875" customWidth="1"/>
-    <col min="18" max="18" width="5.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="159" t="str">
-        <f>$O$8</f>
-        <v>Anfangs-Geschwindigkeit</v>
-      </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="163" t="str">
-        <f>$O$9</f>
-        <v>Geschwindigkeit</v>
-      </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="163" t="str">
-        <f>$O$10</f>
-        <v>Strecke</v>
-      </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="163" t="str">
-        <f>$O$11</f>
-        <v>Zeit</v>
-      </c>
-      <c r="J6" s="160"/>
-      <c r="K6" s="163" t="str">
-        <f>$O$12</f>
-        <v>Beschleunigung</v>
-      </c>
-      <c r="L6" s="164"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="161" t="str">
-        <f>$P$8</f>
-        <v>v0 [m/s]</v>
-      </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="165" t="str">
-        <f>$P$9</f>
-        <v>v [m/s]</v>
-      </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="165" t="str">
-        <f>$P$10</f>
-        <v>s [m]</v>
-      </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="165" t="str">
-        <f>$P$11</f>
-        <v>t [s]</v>
-      </c>
-      <c r="J7" s="162"/>
-      <c r="K7" s="165" t="str">
-        <f>$P$12</f>
-        <v>a [m/s2]</v>
-      </c>
-      <c r="L7" s="166"/>
-      <c r="O7" s="80"/>
-      <c r="S7" s="63"/>
-    </row>
-    <row r="8" spans="1:19" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
-        <v>28</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="29">
-        <f>(G8-(K8/2)*I8^2)/I8</f>
-        <v>10</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="29">
-        <f xml:space="preserve"> G8/I8 + K8*I8/2</f>
-        <v>24</v>
-      </c>
-      <c r="G8" s="153">
-        <v>119</v>
-      </c>
-      <c r="H8" s="154"/>
-      <c r="I8" s="153">
-        <v>7</v>
-      </c>
-      <c r="J8" s="154"/>
-      <c r="K8" s="153">
-        <v>2</v>
-      </c>
-      <c r="L8" s="158"/>
-      <c r="N8" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q8" s="52">
-        <f>IF(N8=$Q$3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-    </row>
-    <row r="9" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>26</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="31">
-        <f>E9-K9*I9</f>
-        <v>10</v>
-      </c>
-      <c r="E9" s="150">
-        <v>24</v>
-      </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="31">
-        <f>E9*I9 - K9*I9^2/2</f>
-        <v>119</v>
-      </c>
-      <c r="I9" s="150">
-        <v>7</v>
-      </c>
-      <c r="J9" s="151"/>
-      <c r="K9" s="150">
-        <v>2</v>
-      </c>
-      <c r="L9" s="156"/>
-      <c r="N9" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="52">
-        <f>IF(N9=$Q$3,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="R9" s="52"/>
-      <c r="S9" s="74"/>
-    </row>
-    <row r="10" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>22</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="31">
-        <f>SQRT(E10^2 - 2*K10*G10)</f>
-        <v>10</v>
-      </c>
-      <c r="E10" s="150">
-        <v>24</v>
-      </c>
-      <c r="F10" s="151"/>
-      <c r="G10" s="150">
-        <v>119</v>
-      </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="31">
-        <f>(E10 - SQRT(E10^2 - 2*K10*G10))/K10</f>
-        <v>7</v>
-      </c>
-      <c r="K10" s="150">
-        <v>2</v>
-      </c>
-      <c r="L10" s="156"/>
-      <c r="N10" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="52">
-        <f>IF(N10=$Q$3,4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-    </row>
-    <row r="11" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="31">
-        <f>2*G11/I11 - E11</f>
-        <v>10</v>
-      </c>
-      <c r="E11" s="150">
-        <v>24</v>
-      </c>
-      <c r="F11" s="151"/>
-      <c r="G11" s="150">
-        <v>119</v>
-      </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="150">
-        <v>7</v>
-      </c>
-      <c r="J11" s="151"/>
-      <c r="K11" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="45">
-        <f xml:space="preserve"> 2/I11 * (E11 - G11/I11)</f>
-        <v>2</v>
-      </c>
-      <c r="N11" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="52">
-        <f>IF(N11=$Q$3,8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-    </row>
-    <row r="12" spans="1:19" s="34" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34">
-        <v>25</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="155">
-        <v>10</v>
-      </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="31">
-        <f>K12*I12+C12</f>
-        <v>24</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="31">
-        <f>K12/2 * I12^2 + C12*I12</f>
-        <v>119</v>
-      </c>
-      <c r="I12" s="150">
-        <v>7</v>
-      </c>
-      <c r="J12" s="151"/>
-      <c r="K12" s="150">
-        <v>2</v>
-      </c>
-      <c r="L12" s="156"/>
-      <c r="N12" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="52">
-        <f>IF(N12=$Q$3,16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="74"/>
-      <c r="S12" s="52">
-        <f>SUM(Q8:Q12)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>21</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="155">
-        <v>10</v>
-      </c>
-      <c r="D13" s="151"/>
-      <c r="E13" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="31">
-        <f>SQRT(C13^2 + 2*K13*G13)</f>
-        <v>24</v>
-      </c>
-      <c r="G13" s="150">
-        <v>119</v>
-      </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="31">
-        <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
-        <v>7</v>
-      </c>
-      <c r="K13" s="148">
-        <v>2</v>
-      </c>
-      <c r="L13" s="156"/>
-      <c r="O13" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" s="81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="155">
-        <v>10</v>
-      </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="31">
-        <f>2*G14/I14 - C14</f>
-        <v>24</v>
-      </c>
-      <c r="G14" s="150">
-        <v>119</v>
-      </c>
-      <c r="H14" s="151"/>
-      <c r="I14" s="150">
-        <v>7</v>
-      </c>
-      <c r="J14" s="157"/>
-      <c r="K14" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="45">
-        <f>2*((G14-C14*I14)/I14^2)</f>
-        <v>2</v>
-      </c>
-      <c r="O14" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>19</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="155">
-        <v>10</v>
-      </c>
-      <c r="D15" s="151"/>
-      <c r="E15" s="150">
-        <v>24</v>
-      </c>
-      <c r="F15" s="151"/>
-      <c r="G15" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="31">
-        <f>(E15^2 - C15^2)/(2*K15)</f>
-        <v>119</v>
-      </c>
-      <c r="I15" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="31">
-        <f>(E15-C15)/K15</f>
-        <v>7</v>
-      </c>
-      <c r="K15" s="150">
-        <v>2</v>
-      </c>
-      <c r="L15" s="156"/>
-      <c r="O15" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="155">
-        <v>10</v>
-      </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="150">
-        <v>24</v>
-      </c>
-      <c r="F16" s="151"/>
-      <c r="G16" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="31">
-        <f>(C16+E16)*I16/2</f>
-        <v>119</v>
-      </c>
-      <c r="I16" s="150">
-        <v>7</v>
-      </c>
-      <c r="J16" s="151"/>
-      <c r="K16" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="45">
-        <f>(E16-C16)/I16</f>
-        <v>2</v>
-      </c>
-      <c r="O16" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="152">
-        <v>10</v>
-      </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="148">
-        <v>24</v>
-      </c>
-      <c r="F17" s="149"/>
-      <c r="G17" s="148">
-        <v>119</v>
-      </c>
-      <c r="H17" s="149"/>
-      <c r="I17" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="83">
-        <f>2*G17/(C17+E17)</f>
-        <v>7</v>
-      </c>
-      <c r="K17" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="84">
-        <f>(E17^2 - C17^2)/(2*G17)</f>
-        <v>2</v>
-      </c>
-      <c r="O17" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="167" t="str">
-        <f>P13</f>
-        <v>ω0 [rad/s]</v>
-      </c>
-      <c r="D18" s="168"/>
-      <c r="E18" s="169" t="str">
-        <f>P14</f>
-        <v>ω [rad/s]</v>
-      </c>
-      <c r="F18" s="168"/>
-      <c r="G18" s="169" t="str">
-        <f>P15</f>
-        <v>φ [rad]</v>
-      </c>
-      <c r="H18" s="168"/>
-      <c r="I18" s="169" t="str">
-        <f>P16</f>
-        <v>t [s]</v>
-      </c>
-      <c r="J18" s="168"/>
-      <c r="K18" s="169" t="str">
-        <f>P17</f>
-        <v>α [rad/s2]</v>
-      </c>
-      <c r="L18" s="170"/>
-    </row>
-    <row r="19" spans="1:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="171" t="str">
-        <f>O13</f>
-        <v>Anfangs-Winkelgeschwindigkeit</v>
-      </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="173" t="str">
-        <f>O14</f>
-        <v>Winkelgeschwindigkeit</v>
-      </c>
-      <c r="F19" s="172"/>
-      <c r="G19" s="173" t="str">
-        <f>O15</f>
-        <v>Winkel</v>
-      </c>
-      <c r="H19" s="172"/>
-      <c r="I19" s="173" t="str">
-        <f>O16</f>
-        <v>Zeit</v>
-      </c>
-      <c r="J19" s="172"/>
-      <c r="K19" s="173" t="str">
-        <f>O17</f>
-        <v>Winkelbeschleunigung</v>
-      </c>
-      <c r="L19" s="174"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I16:J16"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">
-      <formula1>$C$7:$L$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N12" xr:uid="{DCF60D17-7633-456A-A407-CB000447DE9C}">
-      <formula1>$Q$3:$Q$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>